--- a/myfirstproject/src/main/resources/data/TestData.xlsx
+++ b/myfirstproject/src/main/resources/data/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShivShubh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShivShubh\Documents\GitHub\TestAutomation-intellij2025\myfirstproject\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB40C0A-DA35-4448-80DF-A6E08C2F5B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470142D5-F5D6-4F2D-AA5B-0DDEE7ED2483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{1381D1D1-C5D9-42DA-AA66-653BFA180753}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{1381D1D1-C5D9-42DA-AA66-653BFA180753}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
